--- a/Twitter deepfake 2.xlsx
+++ b/Twitter deepfake 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116933EA-F574-4655-A925-F6E2C534445C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB3D0E-14DF-48F3-9098-4FDA940C3D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2346C472-B070-4CF3-9BE8-BDF1DEB01872}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{2346C472-B070-4CF3-9BE8-BDF1DEB01872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="227">
   <si>
     <t>Title</t>
   </si>
@@ -110,9 +110,6 @@
     <t>4:35 AM · Nov 17, 2023</t>
   </si>
   <si>
-    <t>169K</t>
-  </si>
-  <si>
     <t>Views</t>
   </si>
   <si>
@@ -132,13 +129,653 @@
   </si>
   <si>
     <t>4:30 PM · Jul 29, 2023</t>
+  </si>
+  <si>
+    <t>$FAKEAI is now ranked number 9 among the Top 10 Most Popular Cryptocurrencies! 👀
+Given its modest market cap, the potential for further ascent from here is highly likely!
+Let's go and roll it to the top!</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PitchyisaRed/status/1770143070090109080</t>
+  </si>
+  <si>
+    <t>1:39 PM · Mar 19, 2024</t>
+  </si>
+  <si>
+    <t>BREAKING: Black Athletic Director in Baltimore High School Arrested for Producing AI Deepfake of White Principal in Race Hoax.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ImMeme0/status/1783641228036223034</t>
+  </si>
+  <si>
+    <t>7:36 PM · Apr 25, 2024</t>
+  </si>
+  <si>
+    <t>Deepfake se bacho dostonnnn</t>
+  </si>
+  <si>
+    <t>https://twitter.com/RanveerOfficial/status/1781287202745676137</t>
+  </si>
+  <si>
+    <t>7:42 AM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>Has anybody seen or heard the so called PBBM "AUDIO deepfake" reported by some as a “VIDEO”? Are Filipinos that stupid as to believe there is one and yet no one has seen, heard, shared? Check your timelines and check who started the news on it? By now, if there is one, it shd have been trending in platforms.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/maltiq/status/1783992526485213202</t>
+  </si>
+  <si>
+    <t>6:52 PM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>A “foreign actor” is likely behind the audio deepfake of President Marcos where he supposedly ordered the Armed Forces to intervene if China poses a threat to the Philippines, according to the Presidential Communications Office.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PhilippineStar/status/1784020889643676038</t>
+  </si>
+  <si>
+    <t>8:45 PM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>Is this video of dhanashree is deep fake ??</t>
+  </si>
+  <si>
+    <t>https://twitter.com/itsssAisha/status/1783172065664889180</t>
+  </si>
+  <si>
+    <t>12:32 PM · Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>Can someone please tell me if this is a deep fake or not</t>
+  </si>
+  <si>
+    <t>https://twitter.com/killdozer_tv/status/1783251897547465207</t>
+  </si>
+  <si>
+    <t>5:49 PM · Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>Imagine you're half way through #michaelmovie , and then boom this pops up on the screen! (DEEP FAKE/CONCEPT)</t>
+  </si>
+  <si>
+    <t>https://twitter.com/theprincejay_/status/1781747371941962083</t>
+  </si>
+  <si>
+    <t>2:10 PM · Apr 20, 2024</t>
+  </si>
+  <si>
+    <t>This an advanced LIVE deepfake. Watch what happens when he pull his cheeks or eats.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HalimAlrasihi/status/1783260137051791524</t>
+  </si>
+  <si>
+    <t>6:22 PM · Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>You can swap your face LIVE in realtime during video calls or streaming, but you can also use pre-recorded footage. A single input image is enough to create a good deepfake video.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/HalimAlrasihi/status/1783260174775406688</t>
+  </si>
+  <si>
+    <t>‘Don’t fall for deepfake Labour led by catfish Keir’ cries Penny Mordaunt who within hours of being awarded her 25 metre swimming badge claimed with a straight face that she was once Admiral of the Fleet and a direct descendant of the Man from Atlantis</t>
+  </si>
+  <si>
+    <t>https://twitter.com/stuzi_pants/status/1780965367701008599</t>
+  </si>
+  <si>
+    <t>10:23 AM · Apr 18, 2024</t>
+  </si>
+  <si>
+    <t>This fake AI-generated ad with my face &amp; voice has confused many people. Watch the original at the end of the video. In the deepfake AI future, how will people know what’s real?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LarryMadowo/status/1782648881693462657</t>
+  </si>
+  <si>
+    <t>1:53 AM · Apr 23, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft recently launched VASA-1 and it can turn any photo into a video . The deep fake scenario is becoming more visible. There have been many warnings of things like this. The good folks over </t>
+  </si>
+  <si>
+    <t>https://twitter.com/ReverseGasModel/status/1784032417902145952</t>
+  </si>
+  <si>
+    <t>Last edited9:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 24 hours since Microsoft dropped VASA-1, people are scratching their heads in disbelief! This AI can make any image sing, talk &amp; rap, with just an audio reference Deep fake videos that look real! </t>
+  </si>
+  <si>
+    <t>https://twitter.com/KanikaBK/status/1781188511644979340</t>
+  </si>
+  <si>
+    <t>1:10 AM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>This is not Morgan Freeman - A Deepfake Singularity</t>
+  </si>
+  <si>
+    <t>https://twitter.com/PhaniGosala/status/1783583708542341546</t>
+  </si>
+  <si>
+    <t>3:47 PM · Apr 25, 2024</t>
+  </si>
+  <si>
+    <t>Reid Hoffman interviews an AI deepfake clone of himself, can u spot the difference?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/alvinfoo/status/1784044881138364678</t>
+  </si>
+  <si>
+    <t>10:20 PM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>What is meant by deep fake Audio technology, here are few samples. To fake anyone’s voice all you need is sample voice and fake narratives Jagan reddy, Stop exploiting</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CBNArchives/status/1783816754256388451</t>
+  </si>
+  <si>
+    <t>7:13 AM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>Topical: Bollywood stars falling prey to deepfake videos!</t>
+  </si>
+  <si>
+    <t>2:45 AM · Apr 21, 2024</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Amul_Coop/status/1781937401847505120</t>
+  </si>
+  <si>
+    <t>Creators of Deep fake Videos must have at least a wee bit of conscience; in the interest of many weak-hearted and tender souls must refrain from producing such extremely humourous clippings.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ProfMKay/status/1783736421242863619</t>
+  </si>
+  <si>
+    <t>1:54 AM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>This is what's called a deep fake. Meaning, Biden didn't really say this. But it's a very wise speech.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/krovach/status/1781360276207550630</t>
+  </si>
+  <si>
+    <t>12:32 PM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>There is nothing in this world which CONgress can do without scam After getting caught into deep fake videos of film stars Now they are using fake &amp; duplicates for campaign Imagine the intellectual levels of the party &amp; functionaries</t>
+  </si>
+  <si>
+    <t>https://twitter.com/FltLtAnoopVerma/status/1781191219592262141</t>
+  </si>
+  <si>
+    <t>1:20 AM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A truly seismic moment in the fight against deepfake sexual abuse. Change is possible. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/McGlynnClare/status/1781306900400722256</t>
+  </si>
+  <si>
+    <t>9:00 AM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These deepfake sexual abuse websites normalise non-consensual sexual activity and thrive on the abuse and harassment of women. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/McGlynnClare/status/1781306902598623598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaking story from Baltimore, a principal was audio deepfaked and placed on administrative leave for making supposed racist comments. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/breacherai/status/1784263924017147922</t>
+  </si>
+  <si>
+    <t>12:50 PM · Apr 27, 2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Don't react to any audio/video without proper authentication. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1D9BF0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#DeepFake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0F1419"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF1D9BF0"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>#AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0F1419"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> crimes are on the rise. Often times it's almost impossible to make out the real from fake. Don't be triggered, don't respond impulsively, report fake calls/videos</t>
+    </r>
+  </si>
+  <si>
+    <t>https://twitter.com/AkanchaS/status/1782982181255872531</t>
+  </si>
+  <si>
+    <t>11:57 PM · Apr 23, 2024</t>
+  </si>
+  <si>
+    <t>Ranveer Singh files FIR against social media handle promoting his AI-generated deepfake video</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ONE100NEWS/status/1782502397040050402</t>
+  </si>
+  <si>
+    <t>4:11 PM · Apr 22, 2024</t>
+  </si>
+  <si>
+    <t>Introducing Microsoft's VASA-1, a game-changer in AI-driven content creation! This model turns images into hyper-realistic deepfakes in just 170ms. NVIDIA RTX 4090 efficiency, VASA-1 sets new standards in digital media.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DamianSluja/status/1782817997561749879</t>
+  </si>
+  <si>
+    <t>1:05 PM · Apr 23, 2024</t>
+  </si>
+  <si>
+    <t>U.S Army uses deepfake and drones to lure enemies into traps and encourage defection by mimicking the voices of enemy soldiers.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Robert4787/status/1782135969900023892</t>
+  </si>
+  <si>
+    <t>3:55 PM · Apr 21, 2024</t>
+  </si>
+  <si>
+    <t>This #deepfake thing and these fraud tipsters are increasing day by day.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/sandeephanda506/status/1783465393144897569</t>
+  </si>
+  <si>
+    <t>7:57 AM · Apr 25, 2024</t>
+  </si>
+  <si>
+    <t>face swap attacks increased 700% in the second half of 2023, signaling a dangerous new trend</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jmachonis/status/1782435864917758182</t>
+  </si>
+  <si>
+    <t>11:46 AM · Apr 22, 2024</t>
+  </si>
+  <si>
+    <t>How are deepfake videos created? The most common method relies on the use of deep neural networks.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Cybermaterial_/status/1782847110074798384</t>
+  </si>
+  <si>
+    <t>3:00 PM · Apr 23, 2024</t>
+  </si>
+  <si>
+    <t>Deepfake AI: The AI tools undermining our own eyes and ears</t>
+  </si>
+  <si>
+    <t>https://twitter.com/XtraAi/status/1781781952393089295</t>
+  </si>
+  <si>
+    <t>4:28 PM · Apr 20, 2024</t>
+  </si>
+  <si>
+    <t>UK government takes action, banning access to the largest deepfake adult platform. How will this impact online safety?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TheZeroByte/status/1781423333520883827</t>
+  </si>
+  <si>
+    <t>4:43 PM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAN is a subset of deep learning models that produce entirely new images using training data sets using two of its components. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/Cybermaterial_/status/1781427587622867119</t>
+  </si>
+  <si>
+    <t>5:00 PM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>Romance scammers are now building trust with AI-generated deepfakes. Here's how to spot them.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BiIndia/status/1782144777753932002</t>
+  </si>
+  <si>
+    <t>4:30 PM · Apr 21, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What CIOs Can Learn from an Attempted Deepfake Call. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/SimoneKnaap/status/1781480656628842771</t>
+  </si>
+  <si>
+    <t>· Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>South Korean woman loses £40,000 in Elon Musk deepfake romance scam</t>
+  </si>
+  <si>
+    <t>https://twitter.com/KLainey_Noah/status/1783269421831553267</t>
+  </si>
+  <si>
+    <t>6:58 PM · Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>Microsoft presented a neural network that creates deepfakes from just one photo.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AlisaArlet/status/1781266709753565230</t>
+  </si>
+  <si>
+    <t>6:20 AM · Apr 19, 2024</t>
+  </si>
+  <si>
+    <t>What Are Deepfakes? Strategies To Protect Yourself From Deepfake Danger</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SSR__jaihind/status/1781581851037212887</t>
+  </si>
+  <si>
+    <t>3:13 AM · Apr 20, 2024</t>
+  </si>
+  <si>
+    <t>#Deepfake is already a big concern.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/business_today/status/1783749679542362135</t>
+  </si>
+  <si>
+    <t>2:47 AM · Apr 26, 2024</t>
+  </si>
+  <si>
+    <t>YePic, an ‘Ethical’ DeepFake AI company did exactly what they said they wouldnt do, produce deepfakes of non consenting individuals. Here’s what happened</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Davis_Fang/status/1714239263057879367</t>
+  </si>
+  <si>
+    <t>7:17 AM · Oct 17, 2023</t>
+  </si>
+  <si>
+    <t>https://twitter.com/newstapTweets/status/1748960941956596050</t>
+  </si>
+  <si>
+    <t>1:49 AM · Jan 21, 2024</t>
+  </si>
+  <si>
+    <t>These videos are fake. It is disturbing to see rampant misuse of technology. Request everyone to report videos, ads &amp; apps like these in large numbers.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/sachin_rt/status/1746794062961950824</t>
+  </si>
+  <si>
+    <t>2:18 AM · Jan 15, 2024</t>
+  </si>
+  <si>
+    <t>A recent Stanford study went over the immense cost of fake AI https://cyber.fsi.stanford.edu/io/news/ai-spam-accounts-build-followers?ref=404media.co… ThirdEye's platforms such as deepfakeAI are helping to solve this problem by removing fake AI-generated content.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ThirdEyeGen/status/1770870434415657286</t>
+  </si>
+  <si>
+    <t>1:49 PM · Mar 21, 2024</t>
+  </si>
+  <si>
+    <t>Microsoft has hinted at a powerful deepfake AI technology, but is hesitant to release it due to concerns about potential misuse.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jessebenisrael/status/1781803894122627318</t>
+  </si>
+  <si>
+    <t>5:55 PM · Apr 20, 2024</t>
+  </si>
+  <si>
+    <t>DeepFakeAI have been creating true to life deep fakes for an age it seems</t>
+  </si>
+  <si>
+    <t>https://twitter.com/unclebobcrypto/status/1768061145078796577</t>
+  </si>
+  <si>
+    <t>7:46 PM · Mar 13, 2024</t>
+  </si>
+  <si>
+    <t>“Verily, those who accuse chaste women, are cursed in this life and in the Hereafter, and for them will be a great torment”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techie nabbed by Police from Guntur for deepfake video of Rashmika
+</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ThePeerAli/status/1784673667504328803</t>
+  </si>
+  <si>
+    <t>3:58 PM · Apr 28, 2024</t>
+  </si>
+  <si>
+    <r>
+      <t>Amit Shah deepfake video row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0F1419"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | I urge you to expose those who promote fake videos. Think twice before forwarding these videos.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://twitter.com/republic/status/1784917179554497022</t>
+  </si>
+  <si>
+    <t>8:06 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>Ducky Bhai Found Real Girl with whom Aroob jatoi’s Deep Fake AI video was generated.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/hash_eem22/status/1784959430628429950</t>
+  </si>
+  <si>
+    <t>10:54 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait, deep fake is now a thing in Nigeria. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/Mario9jaa/status/1784926387293257731</t>
+  </si>
+  <si>
+    <t>8:43 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>Is it true? Maybe it's a deepfake clip, how it can be possible?</t>
+  </si>
+  <si>
+    <t>https://twitter.com/divya_gandotra/status/1784788194359435775</t>
+  </si>
+  <si>
+    <t>11:33 PM · Apr 28, 2024</t>
+  </si>
+  <si>
+    <t>Anil Baluni, met with the Election Commission of India demanding strict action in cases of deepfake, morphed, fake videos, and promotion through children</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ians_india/status/1784913089600618828</t>
+  </si>
+  <si>
+    <t>7:50 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>PM Modi - "Deepfake in the AI era is a big crisis"</t>
+  </si>
+  <si>
+    <t>https://twitter.com/EverythingAjay/status/1784910792929759238</t>
+  </si>
+  <si>
+    <t>7:41 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>These AI deepfake videos are wild!</t>
+  </si>
+  <si>
+    <t>https://twitter.com/VoteLewko/status/1784936042027704709</t>
+  </si>
+  <si>
+    <t>9:21 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>The first deep fake was created on May 26th of 2014 at 3.30 PM</t>
+  </si>
+  <si>
+    <t>https://twitter.com/avidandiya/status/1784805347573805371</t>
+  </si>
+  <si>
+    <t>12:42 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 71 year old Australian man has lost his life savings because of this deep fake video. The Australian reported he lost over $400k. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/FranMooMoo/status/1784831994544955481</t>
+  </si>
+  <si>
+    <t>2:28 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>PM Modi Warns Of 'Big Incident In Coming Days' Amid Uproar Over Amit Shah Deepfake Video</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ShivVeekay/status/1784955169840505280</t>
+  </si>
+  <si>
+    <t>10:37 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>This fake AI-generated ad with my face &amp; voice has confused many people. Watch the original at the end of the video.</t>
+  </si>
+  <si>
+    <t>Reetam Singh Deep fake video maker of Amit Shah has been arrested in Assam.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mohhchow19/status/1784939985516581293</t>
+  </si>
+  <si>
+    <t>9:37 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Athletic Director in Baltimore High School Arrested for Producing AI Deepfake of White Principal in Race Hoax. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metaphysic and Daniel Emmet bring Simon's singing voice to life with amazing AI deep fake technology. </t>
+  </si>
+  <si>
+    <t>https://twitter.com/cabygsg22/status/1784079482887823633</t>
+  </si>
+  <si>
+    <t>12:37 AM · Apr 27, 2024</t>
+  </si>
+  <si>
+    <t>Heartbroken to see how deepfake technology can be weaponized to violate women’s privacy.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TOKCityOfLights/status/1784817424677929229</t>
+  </si>
+  <si>
+    <t>1:30 AM · Apr 29, 2024</t>
+  </si>
+  <si>
+    <t>It has come to my attention there is a deepfake of me suggesting I am releasing a crypto.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LadyofCrypto1/status/1784677018317058163</t>
+  </si>
+  <si>
+    <t>4:12 PM · Apr 28, 2024</t>
+  </si>
+  <si>
+    <t>What is meant by deep fake Audio technology, here are few samples.</t>
+  </si>
+  <si>
+    <t>Hulihin! Otherwise, deep fake is fake!</t>
+  </si>
+  <si>
+    <t>https://twitter.com/wipedoutseaweed/status/1783134332305227981</t>
+  </si>
+  <si>
+    <t>10:02 AM · Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>Deepfake video created to defame RailMinIndia and AshwinVaishnaw. Please debunk this fake conspiracy by Soros agents.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Deyveeka/status/1783417986763940151</t>
+  </si>
+  <si>
+    <t>4:49 AM · Apr 25, 2024</t>
+  </si>
+  <si>
+    <t>This deepfake story is crazy &amp; alarming.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/_Lanette_R1/status/1783551483318837409</t>
+  </si>
+  <si>
+    <t>1:39 PM · Apr 25, 2024</t>
+  </si>
+  <si>
+    <t>Deepfakes are getting good. Like really good. I cloned myself for this story on Synthesia.</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Melissahei/status/1783535885708906905</t>
+  </si>
+  <si>
+    <t>12:37 PM · Apr 25, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,11 +811,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF1D9BF0"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0F1419"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -210,8 +853,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,6 +913,198 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="939800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="👀">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAE68A9-6344-06D7-4A6F-6D2A1F829DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="😩">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56648513-F279-CE6B-E5AE-EF1AB01699CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3797300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="🎥">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DACA17C-857B-C683-61CB-EF5B1ED7C38A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7404100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="😧">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F0027-31E6-9A6B-5611-519382ABCBBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12128500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -580,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8E45D9-6EF3-4A08-BDE8-8CBA63003ED7}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -715,8 +1559,8 @@
       <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
+      <c r="G6">
+        <v>169000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.45">
@@ -744,13 +1588,13 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -767,13 +1611,13 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -788,8 +1632,1575 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>521</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11">
+        <v>3700</v>
+      </c>
+      <c r="G11">
+        <v>888600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>1400</v>
+      </c>
+      <c r="E12">
+        <v>20000</v>
+      </c>
+      <c r="F12">
+        <v>1200</v>
+      </c>
+      <c r="G12">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>56</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>181</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>106</v>
+      </c>
+      <c r="E20">
+        <v>906</v>
+      </c>
+      <c r="F20">
+        <v>230</v>
+      </c>
+      <c r="G20">
+        <v>105800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>689</v>
+      </c>
+      <c r="F21">
+        <v>211</v>
+      </c>
+      <c r="G21">
+        <v>159800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>3500</v>
+      </c>
+      <c r="F27">
+        <v>214</v>
+      </c>
+      <c r="G27">
+        <v>372700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>52</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>91</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>667</v>
+      </c>
+      <c r="E52">
+        <v>18000</v>
+      </c>
+      <c r="F52">
+        <v>4200</v>
+      </c>
+      <c r="G52">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>6330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>356</v>
+      </c>
+      <c r="F57">
+        <v>134</v>
+      </c>
+      <c r="G57">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>26</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>348</v>
+      </c>
+      <c r="F60">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>68</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>201</v>
+      </c>
+      <c r="F64">
+        <v>38</v>
+      </c>
+      <c r="G64">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>125</v>
+      </c>
+      <c r="E67">
+        <v>692</v>
+      </c>
+      <c r="F67">
+        <v>210</v>
+      </c>
+      <c r="G67">
+        <v>164500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69">
+        <v>546</v>
+      </c>
+      <c r="E69">
+        <v>10000</v>
+      </c>
+      <c r="F69">
+        <v>3900</v>
+      </c>
+      <c r="G69">
+        <v>949300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72">
+        <v>81</v>
+      </c>
+      <c r="E72">
+        <v>276</v>
+      </c>
+      <c r="F72">
+        <v>32</v>
+      </c>
+      <c r="G72">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>41</v>
+      </c>
+      <c r="F73">
+        <v>23</v>
+      </c>
+      <c r="G73">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75">
+        <v>41</v>
+      </c>
+      <c r="G75">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>210</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -802,9 +3213,90 @@
     <hyperlink ref="G1" r:id="rId7" display="https://twitter.com/chatgptglobal/status/1725447538201759847" xr:uid="{5CCCE5A7-C168-4FF1-90B4-A41065BFE0B9}"/>
     <hyperlink ref="C8" r:id="rId8" display="https://twitter.com/ThanosCrypto_/status/1698882334127440224" xr:uid="{203F9372-ABE1-4488-A27D-23F0934DBA38}"/>
     <hyperlink ref="C9" r:id="rId9" display="https://twitter.com/NFTSaandy_/status/1685387277571420160" xr:uid="{C9C74F86-915C-4484-92B1-43CE0FB63394}"/>
+    <hyperlink ref="C10" r:id="rId10" display="https://twitter.com/PitchyisaRed/status/1770143070090109080" xr:uid="{4801241D-2198-461E-8AE2-0365A96D6571}"/>
+    <hyperlink ref="C11" r:id="rId11" display="https://twitter.com/ImMeme0/status/1783641228036223034" xr:uid="{A27AA1B8-BC70-40ED-AB90-0E6B619E9816}"/>
+    <hyperlink ref="C12" r:id="rId12" display="https://twitter.com/RanveerOfficial/status/1781287202745676137" xr:uid="{72D17AEC-B27C-4382-9FD5-7B99F4DACFA5}"/>
+    <hyperlink ref="C13" r:id="rId13" display="https://twitter.com/maltiq/status/1783992526485213202" xr:uid="{3C54F757-219B-4328-A9A5-E94EBA56BCB0}"/>
+    <hyperlink ref="C14" r:id="rId14" display="https://twitter.com/PhilippineStar/status/1784020889643676038" xr:uid="{B11EAD67-0BAA-4B09-8F52-EF4C0D09F5AD}"/>
+    <hyperlink ref="C15" r:id="rId15" display="https://twitter.com/itsssAisha/status/1783172065664889180" xr:uid="{B2B38B5D-9135-4E9D-9FB4-549C82773196}"/>
+    <hyperlink ref="C16" r:id="rId16" display="https://twitter.com/killdozer_tv/status/1783251897547465207" xr:uid="{E458405A-8839-4F0A-881C-895E180064CC}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://twitter.com/hashtag/michaelmovie?src=hashtag_click" xr:uid="{8A0100A2-7B15-4F6A-A962-B4DBD3EDE84A}"/>
+    <hyperlink ref="C17" r:id="rId18" display="https://twitter.com/theprincejay_/status/1781747371941962083" xr:uid="{81CEE0B4-D61C-43DF-833F-ECDBCAD7B476}"/>
+    <hyperlink ref="C18" r:id="rId19" display="https://twitter.com/HalimAlrasihi/status/1783260137051791524" xr:uid="{44171279-4B3E-463F-8479-5483FB69F24C}"/>
+    <hyperlink ref="C19" r:id="rId20" display="https://twitter.com/HalimAlrasihi/status/1783260174775406688" xr:uid="{CE43D4B0-3BCD-4731-AF79-00683A34B47F}"/>
+    <hyperlink ref="C20" r:id="rId21" display="https://twitter.com/stuzi_pants/status/1780965367701008599" xr:uid="{5BDCB48B-11A4-4BD6-A941-584994B6C540}"/>
+    <hyperlink ref="C21" r:id="rId22" display="https://twitter.com/LarryMadowo/status/1782648881693462657" xr:uid="{B6A100FB-CF4E-4E9D-8F84-4E409C5938CD}"/>
+    <hyperlink ref="C22" r:id="rId23" display="https://twitter.com/ReverseGasModel/status/1784032417902145952/history" xr:uid="{28A41CA0-FC69-4446-A800-A1737C228BD5}"/>
+    <hyperlink ref="C23" r:id="rId24" display="https://twitter.com/KanikaBK/status/1781188511644979340" xr:uid="{247C59C7-5A66-411A-BAE3-067CE5BE1BE5}"/>
+    <hyperlink ref="C24" r:id="rId25" display="https://twitter.com/PhaniGosala/status/1783583708542341546" xr:uid="{20376C95-0DAC-435D-95B5-1921931BAFC5}"/>
+    <hyperlink ref="C25" r:id="rId26" display="https://twitter.com/alvinfoo/status/1784044881138364678" xr:uid="{B2232C1D-DBB1-4EB7-964A-6D0EB67D21BE}"/>
+    <hyperlink ref="C26" r:id="rId27" display="https://twitter.com/CBNArchives/status/1783816754256388451" xr:uid="{E08C4488-6A6E-4A64-8C2F-FD357657D8F0}"/>
+    <hyperlink ref="C27" r:id="rId28" display="https://twitter.com/Amul_Coop/status/1781937401847505120" xr:uid="{7280C816-7EED-470E-90E2-4E08E22E582D}"/>
+    <hyperlink ref="C28" r:id="rId29" display="https://twitter.com/ProfMKay/status/1783736421242863619" xr:uid="{98D19A88-65C2-4DE2-9DC7-727615F539A5}"/>
+    <hyperlink ref="C29" r:id="rId30" display="https://twitter.com/krovach/status/1781360276207550630" xr:uid="{978241D3-CAE8-45E5-A3DD-C96E1287E06B}"/>
+    <hyperlink ref="C30" r:id="rId31" display="https://twitter.com/FltLtAnoopVerma/status/1781191219592262141" xr:uid="{0B16BCC2-812D-408E-BE06-5A084D7BDE5C}"/>
+    <hyperlink ref="C31" r:id="rId32" display="https://twitter.com/McGlynnClare/status/1781306900400722256" xr:uid="{53D170A9-0DF1-4197-BB33-23ACDBE41F24}"/>
+    <hyperlink ref="C32" r:id="rId33" display="https://twitter.com/McGlynnClare/status/1781306902598623598" xr:uid="{B33CE879-084A-47B5-9AD0-AA22F5E8E4BD}"/>
+    <hyperlink ref="C33" r:id="rId34" display="https://twitter.com/breacherai/status/1784263924017147922" xr:uid="{4EFC0A19-3149-43A0-A503-076345D5A189}"/>
+    <hyperlink ref="C34" r:id="rId35" display="https://twitter.com/AkanchaS/status/1782982181255872531" xr:uid="{7A6792D0-93E0-4FC7-A67B-6878B1817723}"/>
+    <hyperlink ref="C35" r:id="rId36" display="https://twitter.com/ONE100NEWS/status/1782502397040050402" xr:uid="{59E667C6-5F65-42B6-ACE8-C9D571451C9E}"/>
+    <hyperlink ref="C36" r:id="rId37" display="https://twitter.com/DamianSluja/status/1782817997561749879" xr:uid="{6A0B64CF-3C21-4DC4-AE8F-742123404EEB}"/>
+    <hyperlink ref="C37" r:id="rId38" display="https://twitter.com/Robert4787/status/1782135969900023892" xr:uid="{B815C3BB-60EC-49FE-99A7-24B24C0F1523}"/>
+    <hyperlink ref="A38" r:id="rId39" display="https://twitter.com/hashtag/deepfake?src=hashtag_click" xr:uid="{D300AD87-7E38-47C5-B367-76B814508804}"/>
+    <hyperlink ref="C38" r:id="rId40" display="https://twitter.com/sandeephanda506/status/1783465393144897569" xr:uid="{9C25B033-1A98-440D-81C8-374DF028D9D2}"/>
+    <hyperlink ref="C39" r:id="rId41" display="https://twitter.com/jmachonis/status/1782435864917758182" xr:uid="{D1451220-A917-4E63-B055-6913003A2917}"/>
+    <hyperlink ref="C40" r:id="rId42" display="https://twitter.com/Cybermaterial_/status/1782847110074798384" xr:uid="{912DE518-BD64-4480-A039-98E59F7D5164}"/>
+    <hyperlink ref="C41" r:id="rId43" display="https://twitter.com/XtraAi/status/1781781952393089295" xr:uid="{EB4AC62D-DCD0-47F7-A139-CE29F5F17C91}"/>
+    <hyperlink ref="C42" r:id="rId44" display="https://twitter.com/TheZeroByte/status/1781423333520883827" xr:uid="{7022C0D4-132A-4F26-A1AC-7C716BF9DF6C}"/>
+    <hyperlink ref="C43" r:id="rId45" display="https://twitter.com/Cybermaterial_/status/1781427587622867119" xr:uid="{1D4562F0-4C9D-42F7-A574-42830037C47E}"/>
+    <hyperlink ref="C44" r:id="rId46" display="https://twitter.com/BiIndia/status/1782144777753932002" xr:uid="{F764640F-71E1-4F50-A49F-B504969D344F}"/>
+    <hyperlink ref="C45" r:id="rId47" display="https://twitter.com/SimoneKnaap/status/1781480656628842771" xr:uid="{9FEE1D8E-43A7-4277-8864-32F0F468E30D}"/>
+    <hyperlink ref="C46" r:id="rId48" display="https://twitter.com/KLainey_Noah/status/1783269421831553267" xr:uid="{02502C98-11E8-4E28-93B4-7045BF97D64D}"/>
+    <hyperlink ref="C47" r:id="rId49" display="https://twitter.com/AlisaArlet/status/1781266709753565230" xr:uid="{DE70EDC8-2F14-499B-A9FB-E8CFC0F9515A}"/>
+    <hyperlink ref="C48" r:id="rId50" display="https://twitter.com/SSR__jaihind/status/1781581851037212887" xr:uid="{3C8A0551-9EAD-42C0-B3CA-CE46FD3DDC48}"/>
+    <hyperlink ref="A49" r:id="rId51" display="https://twitter.com/hashtag/Deepfake?src=hashtag_click" xr:uid="{2F9FE869-EF18-4A24-A58A-66D6D8E3942F}"/>
+    <hyperlink ref="C49" r:id="rId52" display="https://twitter.com/business_today/status/1783749679542362135" xr:uid="{BFF18174-3826-454D-81C5-60FA08A27FF2}"/>
+    <hyperlink ref="C50" r:id="rId53" display="https://twitter.com/Davis_Fang/status/1714239263057879367" xr:uid="{D0BDE033-D4C6-4854-B279-4B4391FD61C8}"/>
+    <hyperlink ref="C51" r:id="rId54" display="https://twitter.com/newstapTweets/status/1748960941956596050" xr:uid="{E21B1852-6951-4BC3-98D8-120FFFF36904}"/>
+    <hyperlink ref="C52" r:id="rId55" display="https://twitter.com/sachin_rt/status/1746794062961950824" xr:uid="{E548E262-6022-4620-986E-6CFC8C4EA7B7}"/>
+    <hyperlink ref="C53" r:id="rId56" display="https://twitter.com/ThirdEyeGen/status/1770870434415657286" xr:uid="{940917DB-DBE2-4A92-ABDC-86F6710C1E73}"/>
+    <hyperlink ref="C54" r:id="rId57" display="https://twitter.com/jessebenisrael/status/1781803894122627318" xr:uid="{B320FB2E-C9F9-4406-B2FA-72FD7D04CBA9}"/>
+    <hyperlink ref="C55" r:id="rId58" display="https://twitter.com/unclebobcrypto/status/1768061145078796577" xr:uid="{EA009E39-27E1-4D85-9DBF-2EE780A123C4}"/>
+    <hyperlink ref="C56" r:id="rId59" display="https://twitter.com/ThePeerAli/status/1784673667504328803" xr:uid="{36059EBF-8AB7-4A5F-9188-96357C8924CE}"/>
+    <hyperlink ref="C57" r:id="rId60" display="https://twitter.com/republic/status/1784917179554497022" xr:uid="{C66B1C86-69D9-4391-A581-E4D3AD03C8A8}"/>
+    <hyperlink ref="C58" r:id="rId61" display="https://twitter.com/hash_eem22/status/1784959430628429950" xr:uid="{9FA552C0-EB96-4822-B46E-A22E232FC01E}"/>
+    <hyperlink ref="B59" r:id="rId62" xr:uid="{95DCEF1D-E3D7-4688-AAE7-828E79AB3837}"/>
+    <hyperlink ref="C59" r:id="rId63" display="https://twitter.com/Mario9jaa/status/1784926387293257731" xr:uid="{FEAD506B-DEA0-441C-9544-BCDB697429C8}"/>
+    <hyperlink ref="C60" r:id="rId64" display="https://twitter.com/divya_gandotra/status/1784788194359435775" xr:uid="{26232D79-BAA2-42FF-A8DF-BB07694C2312}"/>
+    <hyperlink ref="C61" r:id="rId65" display="https://twitter.com/ians_india/status/1784913089600618828" xr:uid="{054F4B18-798A-4A3A-9B0B-A198B8AD1C1C}"/>
+    <hyperlink ref="B62" r:id="rId66" xr:uid="{E355E8F4-A37C-47CD-B698-53EF02827850}"/>
+    <hyperlink ref="C62" r:id="rId67" display="https://twitter.com/EverythingAjay/status/1784910792929759238" xr:uid="{7C533877-3029-4FE4-89D4-49E5DB3C6AF3}"/>
+    <hyperlink ref="C63" r:id="rId68" display="https://twitter.com/VoteLewko/status/1784936042027704709" xr:uid="{A801E687-6DF5-4789-BF1D-9206A9B20937}"/>
+    <hyperlink ref="B64" r:id="rId69" xr:uid="{C4F47E12-7852-4B64-9BD2-18E6FC3BCFCE}"/>
+    <hyperlink ref="C64" r:id="rId70" display="https://twitter.com/avidandiya/status/1784805347573805371" xr:uid="{4F414103-9AF2-4818-9672-FBC3A30CCD9D}"/>
+    <hyperlink ref="C65" r:id="rId71" display="https://twitter.com/FranMooMoo/status/1784831994544955481" xr:uid="{D5544A17-BC91-4E85-B05C-AB06E245A8D3}"/>
+    <hyperlink ref="B66" r:id="rId72" xr:uid="{D24B647D-E552-48F5-A2EE-A145A2A6EA98}"/>
+    <hyperlink ref="C66" r:id="rId73" display="https://twitter.com/ShivVeekay/status/1784955169840505280" xr:uid="{10FCAD34-40C2-4402-A15F-AB8801C6A8C1}"/>
+    <hyperlink ref="B67" r:id="rId74" xr:uid="{5902F971-3906-436F-812E-4A9E7AFC0308}"/>
+    <hyperlink ref="C67" r:id="rId75" display="https://twitter.com/LarryMadowo/status/1782648881693462657" xr:uid="{B69A8F6A-11C9-4842-88B6-232E93FE8929}"/>
+    <hyperlink ref="C68" r:id="rId76" display="https://twitter.com/mohhchow19/status/1784939985516581293" xr:uid="{45B379B1-834D-4FBC-A7DA-1B9E1CDE8DDF}"/>
+    <hyperlink ref="B69" r:id="rId77" xr:uid="{32D4542A-57BF-4F3B-9F57-E43137C4D0CF}"/>
+    <hyperlink ref="C69" r:id="rId78" display="https://twitter.com/ImMeme0/status/1783641228036223034" xr:uid="{55C86EF8-FC89-4D52-A028-B65F76E04A31}"/>
+    <hyperlink ref="B70" r:id="rId79" xr:uid="{F344BB2A-4330-48A2-8CD4-8C4F273CC954}"/>
+    <hyperlink ref="C70" r:id="rId80" display="https://twitter.com/cabygsg22/status/1784079482887823633" xr:uid="{5037941E-F252-4D77-8572-4CA7F9BEE801}"/>
+    <hyperlink ref="C71" r:id="rId81" display="https://twitter.com/TOKCityOfLights/status/1784817424677929229" xr:uid="{E78AF00B-A72B-4BCB-A690-C4C73787DEF2}"/>
+    <hyperlink ref="C72" r:id="rId82" display="https://twitter.com/LadyofCrypto1/status/1784677018317058163" xr:uid="{3876D4D9-DF77-4FAE-8884-EC74C3C66DB6}"/>
+    <hyperlink ref="B73" r:id="rId83" xr:uid="{4AB2CD86-3C7A-4C0A-B42E-D9F5785E090C}"/>
+    <hyperlink ref="C73" r:id="rId84" display="https://twitter.com/CBNArchives/status/1783816754256388451" xr:uid="{C9F46DEF-CE5B-4FBD-977D-4AF16DEE94A8}"/>
+    <hyperlink ref="B74" r:id="rId85" xr:uid="{24321CB8-AABD-43FB-9CD5-5DD2085A5DC6}"/>
+    <hyperlink ref="C74" r:id="rId86" display="https://twitter.com/wipedoutseaweed/status/1783134332305227981" xr:uid="{33A1265B-3D79-42F6-8FA0-EC3383CFAFB5}"/>
+    <hyperlink ref="C75" r:id="rId87" display="https://twitter.com/Deyveeka/status/1783417986763940151" xr:uid="{51525690-F8ED-43E5-A2AB-9CAB6D0389C7}"/>
+    <hyperlink ref="B76" r:id="rId88" xr:uid="{689E1B01-A578-4A06-B2CB-0F58F518C4CD}"/>
+    <hyperlink ref="C76" r:id="rId89" display="https://twitter.com/_Lanette_R1/status/1783551483318837409" xr:uid="{921D091F-034D-4EDA-9E67-8249376D3298}"/>
+    <hyperlink ref="C77" r:id="rId90" display="https://twitter.com/Melissahei/status/1783535885708906905" xr:uid="{A09217D2-4B28-48DD-B61E-DD5025AB8670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId91"/>
+  <drawing r:id="rId92"/>
 </worksheet>
 </file>